--- a/test/Buoyant Forces Test.xlsx
+++ b/test/Buoyant Forces Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcwgp\OneDrive\UTA Fall 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B92C0B-8425-43BA-BCF2-117DC81F858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD210C8A-CB90-4109-BA74-1F9BACBE8A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="5835" windowWidth="28800" windowHeight="15345" xr2:uid="{196FC2F5-642E-41FA-9A20-FB4A6CAC5F50}"/>
+    <workbookView xWindow="2430" yWindow="3210" windowWidth="28800" windowHeight="15345" xr2:uid="{196FC2F5-642E-41FA-9A20-FB4A6CAC5F50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>TEST ID</t>
   </si>
@@ -153,6 +153,60 @@
   </si>
   <si>
     <t>Missing ballonet value</t>
+  </si>
+  <si>
+    <t>EXPECTATION</t>
+  </si>
+  <si>
+    <t>Load the aircraft XML file in the program and confirm Buoyant Forces appears.</t>
+  </si>
+  <si>
+    <t>Click the Buoyant Forces tab in the UI.</t>
+  </si>
+  <si>
+    <t>Click Add Gas Cell, enter values, and save.</t>
+  </si>
+  <si>
+    <t>Select an existing gas cell → click Edit Gas Cell → change a field → save.</t>
+  </si>
+  <si>
+    <t>Select a gas cell → click Delete Gas Cell → save.</t>
+  </si>
+  <si>
+    <t>Select a ballonet → click Delete Ballonet → save.</t>
+  </si>
+  <si>
+    <t>Select a gas cell → click Add Ballonet → enter values → save.</t>
+  </si>
+  <si>
+    <t>Select a ballonet → click Edit Ballonet → modify fullness → save.</t>
+  </si>
+  <si>
+    <t>Delete all gas cells so the buoyant section becomes empty.</t>
+  </si>
+  <si>
+    <t>Click a gas cell or ballonet and verify all properties appear in the details area.</t>
+  </si>
+  <si>
+    <t>Make any change → click Save Changes → reload the file.</t>
+  </si>
+  <si>
+    <t>Enter letters or invalid characters in a numeric field and attempt to save.</t>
+  </si>
+  <si>
+    <t>Enter a negative number in the volume field and try saving.</t>
+  </si>
+  <si>
+    <t>Leave a required gas cell field blank and click save.</t>
+  </si>
+  <si>
+    <t>Leave a required ballonet field blank and click save.</t>
+  </si>
+  <si>
+    <t>Enter extremely large numbers into gas cell fields and save.</t>
+  </si>
+  <si>
+    <t>Leave all editable fields blank and attempt to save.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -205,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,42 +594,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE42B73-F058-452C-9C75-A8EDB5AA5016}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="104" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="2" max="3" width="104" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -582,10 +643,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -593,10 +657,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -604,10 +671,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,10 +685,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -626,10 +699,13 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -637,10 +713,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -648,10 +727,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -659,10 +741,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -670,10 +755,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -681,10 +769,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -692,10 +783,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -703,10 +797,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -714,10 +811,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -725,10 +825,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -736,10 +839,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -747,40 +853,48 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
